--- a/src/excel/CardAll.xlsx
+++ b/src/excel/CardAll.xlsx
@@ -56,10 +56,10 @@
     <t xml:space="preserve">idColumn</t>
   </si>
   <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA aSUA</t>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA a1233SUA aaaaa</t>
   </si>
   <si>
     <t xml:space="preserve">null</t>
@@ -68,37 +68,58 @@
     <t xml:space="preserve">car1d1 column a4</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue Jun 21 2022 14:31:10 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 14:43:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carda 5</t>
+    <t xml:space="preserve">Tue Jun 21 2022 16:03:36 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 09:44:11 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carda 51</t>
   </si>
   <si>
     <t xml:space="preserve">car1d1 column aa4</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue Jun 21 2022 15:02:08 GMT+0700 (Indochina Time)</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 09:42:09 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carda 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:03:36 GMT+0700 (Indochina Time)</t>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 09:00:06 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 08:52:56 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jun 21 2022 16:09:31 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue Jun 21 2022 16:08:50 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t xml:space="preserve">73</t>
@@ -111,36 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tue Jun 21 2022 16:06:10 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:08:50 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:09:31 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA a1233SUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 14:45:13 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 15:07:41 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
   </si>
 </sst>
 </file>
@@ -546,27 +537,27 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -578,27 +569,27 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -613,24 +604,24 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -645,16 +636,16 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +653,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -683,10 +674,10 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -694,7 +685,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -715,10 +706,10 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -726,31 +717,31 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/CardAll.xlsx
+++ b/src/excel/CardAll.xlsx
@@ -56,82 +56,28 @@
     <t xml:space="preserve">idColumn</t>
   </si>
   <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA a1233SUA aaaaa</t>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carda 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri May 05 2023 00:00:00 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car1d1 column aa4</t>
   </si>
   <si>
     <t xml:space="preserve">null</t>
   </si>
   <si>
-    <t xml:space="preserve">car1d1 column a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:03:36 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed Jun 22 2022 09:44:11 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carda 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car1d1 column aa4</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Wed Jun 22 2022 09:42:09 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed Jun 22 2022 09:00:06 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed Jun 22 2022 08:52:56 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:09:31 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:08:50 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:06:21 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:06:10 GMT+0700 (Indochina Time)</t>
+    <t xml:space="preserve">Wed Jun 22 2022 16:58:25 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
   </si>
 </sst>
 </file>
@@ -502,246 +448,22 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
